--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Apoe-Lrp5.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Apoe-Lrp5.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>156.656447</v>
+        <v>27.67634766666667</v>
       </c>
       <c r="H2">
-        <v>469.969341</v>
+        <v>83.029043</v>
       </c>
       <c r="I2">
-        <v>0.0671576211124673</v>
+        <v>0.005965811625935536</v>
       </c>
       <c r="J2">
-        <v>0.0671576211124673</v>
+        <v>0.005965811625935536</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>13.523597</v>
+        <v>21.33926</v>
       </c>
       <c r="N2">
-        <v>40.570791</v>
+        <v>64.01778</v>
       </c>
       <c r="O2">
-        <v>0.3454494697445509</v>
+        <v>0.4398914187744692</v>
       </c>
       <c r="P2">
-        <v>0.3454494697445509</v>
+        <v>0.4398914187744692</v>
       </c>
       <c r="Q2">
-        <v>2118.558656679859</v>
+        <v>590.5927787093933</v>
       </c>
       <c r="R2">
-        <v>19067.02791011873</v>
+        <v>5315.33500838454</v>
       </c>
       <c r="S2">
-        <v>0.02319956460260728</v>
+        <v>0.002624309340274006</v>
       </c>
       <c r="T2">
-        <v>0.02319956460260729</v>
+        <v>0.002624309340274006</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>156.656447</v>
+        <v>27.67634766666667</v>
       </c>
       <c r="H3">
-        <v>469.969341</v>
+        <v>83.029043</v>
       </c>
       <c r="I3">
-        <v>0.0671576211124673</v>
+        <v>0.005965811625935536</v>
       </c>
       <c r="J3">
-        <v>0.0671576211124673</v>
+        <v>0.005965811625935536</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>34.790704</v>
       </c>
       <c r="O3">
-        <v>0.2962335698320406</v>
+        <v>0.23906065069302</v>
       </c>
       <c r="P3">
-        <v>0.2962335698320406</v>
+        <v>0.23906065069302</v>
       </c>
       <c r="Q3">
-        <v>1816.729359089562</v>
+        <v>320.9598731573636</v>
       </c>
       <c r="R3">
-        <v>16350.56423180606</v>
+        <v>2888.638858416272</v>
       </c>
       <c r="S3">
-        <v>0.01989434184357381</v>
+        <v>0.001426190809208133</v>
       </c>
       <c r="T3">
-        <v>0.01989434184357381</v>
+        <v>0.001426190809208133</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>156.656447</v>
+        <v>27.67634766666667</v>
       </c>
       <c r="H4">
-        <v>469.969341</v>
+        <v>83.029043</v>
       </c>
       <c r="I4">
-        <v>0.0671576211124673</v>
+        <v>0.005965811625935536</v>
       </c>
       <c r="J4">
-        <v>0.0671576211124673</v>
+        <v>0.005965811625935536</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>9.452519666666667</v>
+        <v>10.59425366666667</v>
       </c>
       <c r="N4">
-        <v>28.357559</v>
+        <v>31.782761</v>
       </c>
       <c r="O4">
-        <v>0.2414570551459008</v>
+        <v>0.2183918878295978</v>
       </c>
       <c r="P4">
-        <v>0.2414570551459009</v>
+        <v>0.2183918878295978</v>
       </c>
       <c r="Q4">
-        <v>1480.798146177624</v>
+        <v>293.2102477475248</v>
       </c>
       <c r="R4">
-        <v>13327.18331559862</v>
+        <v>2638.892229727723</v>
       </c>
       <c r="S4">
-        <v>0.01621568142442053</v>
+        <v>0.001302884863423824</v>
       </c>
       <c r="T4">
-        <v>0.01621568142442053</v>
+        <v>0.001302884863423824</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>156.656447</v>
+        <v>27.67634766666667</v>
       </c>
       <c r="H5">
-        <v>469.969341</v>
+        <v>83.029043</v>
       </c>
       <c r="I5">
-        <v>0.0671576211124673</v>
+        <v>0.005965811625935536</v>
       </c>
       <c r="J5">
-        <v>0.0671576211124673</v>
+        <v>0.005965811625935536</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.574811666666666</v>
+        <v>4.979874333333333</v>
       </c>
       <c r="N5">
-        <v>13.724435</v>
+        <v>14.939623</v>
       </c>
       <c r="O5">
-        <v>0.1168599052775075</v>
+        <v>0.102656042702913</v>
       </c>
       <c r="P5">
-        <v>0.1168599052775075</v>
+        <v>0.102656042702913</v>
       </c>
       <c r="Q5">
-        <v>716.6737413941482</v>
+        <v>137.8247333856432</v>
       </c>
       <c r="R5">
-        <v>6450.063672547335</v>
+        <v>1240.422600470789</v>
       </c>
       <c r="S5">
-        <v>0.007848033241865667</v>
+        <v>0.0006124266130295734</v>
       </c>
       <c r="T5">
-        <v>0.007848033241865669</v>
+        <v>0.0006124266130295734</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>126.902076</v>
       </c>
       <c r="I6">
-        <v>0.01813403725498241</v>
+        <v>0.009118181457976757</v>
       </c>
       <c r="J6">
-        <v>0.01813403725498241</v>
+        <v>0.009118181457976757</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>13.523597</v>
+        <v>21.33926</v>
       </c>
       <c r="N6">
-        <v>40.570791</v>
+        <v>64.01778</v>
       </c>
       <c r="O6">
-        <v>0.3454494697445509</v>
+        <v>0.4398914187744692</v>
       </c>
       <c r="P6">
-        <v>0.3454494697445509</v>
+        <v>0.4398914187744692</v>
       </c>
       <c r="Q6">
-        <v>572.057511429124</v>
+        <v>902.66546476792</v>
       </c>
       <c r="R6">
-        <v>5148.517602862115</v>
+        <v>8123.98918291128</v>
       </c>
       <c r="S6">
-        <v>0.006264393554061603</v>
+        <v>0.004011009778192453</v>
       </c>
       <c r="T6">
-        <v>0.006264393554061604</v>
+        <v>0.004011009778192454</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>126.902076</v>
       </c>
       <c r="I7">
-        <v>0.01813403725498241</v>
+        <v>0.009118181457976757</v>
       </c>
       <c r="J7">
-        <v>0.01813403725498241</v>
+        <v>0.009118181457976757</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>34.790704</v>
       </c>
       <c r="O7">
-        <v>0.2962335698320406</v>
+        <v>0.23906065069302</v>
       </c>
       <c r="P7">
-        <v>0.2962335698320406</v>
+        <v>0.23906065069302</v>
       </c>
       <c r="Q7">
         <v>490.5569514557226</v>
@@ -883,10 +883,10 @@
         <v>4415.012563101503</v>
       </c>
       <c r="S7">
-        <v>0.005371910591510657</v>
+        <v>0.002179798392480953</v>
       </c>
       <c r="T7">
-        <v>0.005371910591510657</v>
+        <v>0.002179798392480953</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>126.902076</v>
       </c>
       <c r="I8">
-        <v>0.01813403725498241</v>
+        <v>0.009118181457976757</v>
       </c>
       <c r="J8">
-        <v>0.01813403725498241</v>
+        <v>0.009118181457976757</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>9.452519666666667</v>
+        <v>10.59425366666667</v>
       </c>
       <c r="N8">
-        <v>28.357559</v>
+        <v>31.782761</v>
       </c>
       <c r="O8">
-        <v>0.2414570551459008</v>
+        <v>0.2183918878295978</v>
       </c>
       <c r="P8">
-        <v>0.2414570551459009</v>
+        <v>0.2183918878295978</v>
       </c>
       <c r="Q8">
-        <v>399.8481230436093</v>
+        <v>448.1442613235373</v>
       </c>
       <c r="R8">
-        <v>3598.633107392484</v>
+        <v>4033.298351911836</v>
       </c>
       <c r="S8">
-        <v>0.004378591233494106</v>
+        <v>0.001991336862180378</v>
       </c>
       <c r="T8">
-        <v>0.004378591233494108</v>
+        <v>0.001991336862180378</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>126.902076</v>
       </c>
       <c r="I9">
-        <v>0.01813403725498241</v>
+        <v>0.009118181457976757</v>
       </c>
       <c r="J9">
-        <v>0.01813403725498241</v>
+        <v>0.009118181457976757</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.574811666666666</v>
+        <v>4.979874333333333</v>
       </c>
       <c r="N9">
-        <v>13.724435</v>
+        <v>14.939623</v>
       </c>
       <c r="O9">
-        <v>0.1168599052775075</v>
+        <v>0.102656042702913</v>
       </c>
       <c r="P9">
-        <v>0.1168599052775075</v>
+        <v>0.102656042702913</v>
       </c>
       <c r="Q9">
-        <v>193.5176992696733</v>
+        <v>210.6521303730387</v>
       </c>
       <c r="R9">
-        <v>1741.65929342706</v>
+        <v>1895.869173357348</v>
       </c>
       <c r="S9">
-        <v>0.002119141875916036</v>
+        <v>0.0009360364251229718</v>
       </c>
       <c r="T9">
-        <v>0.002119141875916037</v>
+        <v>0.0009360364251229718</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>23.52144266666667</v>
+        <v>29.593002</v>
       </c>
       <c r="H10">
-        <v>70.564328</v>
+        <v>88.779006</v>
       </c>
       <c r="I10">
-        <v>0.01008349266740757</v>
+        <v>0.006378958578792732</v>
       </c>
       <c r="J10">
-        <v>0.01008349266740757</v>
+        <v>0.006378958578792732</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>13.523597</v>
+        <v>21.33926</v>
       </c>
       <c r="N10">
-        <v>40.570791</v>
+        <v>64.01778</v>
       </c>
       <c r="O10">
-        <v>0.3454494697445509</v>
+        <v>0.4398914187744692</v>
       </c>
       <c r="P10">
-        <v>0.3454494697445509</v>
+        <v>0.4398914187744692</v>
       </c>
       <c r="Q10">
-        <v>318.0945114826054</v>
+        <v>631.49276385852</v>
       </c>
       <c r="R10">
-        <v>2862.850603343448</v>
+        <v>5683.434874726679</v>
       </c>
       <c r="S10">
-        <v>0.003483337195129012</v>
+        <v>0.002806049139528706</v>
       </c>
       <c r="T10">
-        <v>0.003483337195129012</v>
+        <v>0.002806049139528707</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>23.52144266666667</v>
+        <v>29.593002</v>
       </c>
       <c r="H11">
-        <v>70.564328</v>
+        <v>88.779006</v>
       </c>
       <c r="I11">
-        <v>0.01008349266740757</v>
+        <v>0.006378958578792732</v>
       </c>
       <c r="J11">
-        <v>0.01008349266740757</v>
+        <v>0.006378958578792732</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>34.790704</v>
       </c>
       <c r="O11">
-        <v>0.2962335698320406</v>
+        <v>0.23906065069302</v>
       </c>
       <c r="P11">
-        <v>0.2962335698320406</v>
+        <v>0.23906065069302</v>
       </c>
       <c r="Q11">
-        <v>272.7758498229903</v>
+        <v>343.187124351136</v>
       </c>
       <c r="R11">
-        <v>2454.982648406912</v>
+        <v>3088.684119160224</v>
       </c>
       <c r="S11">
-        <v>0.00298706902924135</v>
+        <v>0.001524957988590013</v>
       </c>
       <c r="T11">
-        <v>0.00298706902924135</v>
+        <v>0.001524957988590013</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>23.52144266666667</v>
+        <v>29.593002</v>
       </c>
       <c r="H12">
-        <v>70.564328</v>
+        <v>88.779006</v>
       </c>
       <c r="I12">
-        <v>0.01008349266740757</v>
+        <v>0.006378958578792732</v>
       </c>
       <c r="J12">
-        <v>0.01008349266740757</v>
+        <v>0.006378958578792732</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>9.452519666666667</v>
+        <v>10.59425366666667</v>
       </c>
       <c r="N12">
-        <v>28.357559</v>
+        <v>31.782761</v>
       </c>
       <c r="O12">
-        <v>0.2414570551459008</v>
+        <v>0.2183918878295978</v>
       </c>
       <c r="P12">
-        <v>0.2414570551459009</v>
+        <v>0.2183918878295978</v>
       </c>
       <c r="Q12">
-        <v>222.3368993950392</v>
+        <v>313.515769946174</v>
       </c>
       <c r="R12">
-        <v>2001.032094555352</v>
+        <v>2821.641929515566</v>
       </c>
       <c r="S12">
-        <v>0.002434730445057516</v>
+        <v>0.001393112806409353</v>
       </c>
       <c r="T12">
-        <v>0.002434730445057517</v>
+        <v>0.001393112806409353</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>23.52144266666667</v>
+        <v>29.593002</v>
       </c>
       <c r="H13">
-        <v>70.564328</v>
+        <v>88.779006</v>
       </c>
       <c r="I13">
-        <v>0.01008349266740757</v>
+        <v>0.006378958578792732</v>
       </c>
       <c r="J13">
-        <v>0.01008349266740757</v>
+        <v>0.006378958578792732</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>4.574811666666666</v>
+        <v>4.979874333333333</v>
       </c>
       <c r="N13">
-        <v>13.724435</v>
+        <v>14.939623</v>
       </c>
       <c r="O13">
-        <v>0.1168599052775075</v>
+        <v>0.102656042702913</v>
       </c>
       <c r="P13">
-        <v>0.1168599052775075</v>
+        <v>0.102656042702913</v>
       </c>
       <c r="Q13">
-        <v>107.6061703282978</v>
+        <v>147.369431106082</v>
       </c>
       <c r="R13">
-        <v>968.4555329546801</v>
+        <v>1326.324879954738</v>
       </c>
       <c r="S13">
-        <v>0.00117835599797969</v>
+        <v>0.0006548386442646602</v>
       </c>
       <c r="T13">
-        <v>0.00117835599797969</v>
+        <v>0.0006548386442646602</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2110.189616</v>
+        <v>4539.588785666667</v>
       </c>
       <c r="H14">
-        <v>6330.568848000001</v>
+        <v>13618.766357</v>
       </c>
       <c r="I14">
-        <v>0.9046248489651427</v>
+        <v>0.9785370483372949</v>
       </c>
       <c r="J14">
-        <v>0.9046248489651427</v>
+        <v>0.978537048337295</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>13.523597</v>
+        <v>21.33926</v>
       </c>
       <c r="N14">
-        <v>40.570791</v>
+        <v>64.01778</v>
       </c>
       <c r="O14">
-        <v>0.3454494697445509</v>
+        <v>0.4398914187744692</v>
       </c>
       <c r="P14">
-        <v>0.3454494697445509</v>
+        <v>0.4398914187744692</v>
       </c>
       <c r="Q14">
-        <v>28537.35396036875</v>
+        <v>96871.46539042528</v>
       </c>
       <c r="R14">
-        <v>256836.1856433188</v>
+        <v>871843.1885138275</v>
       </c>
       <c r="S14">
-        <v>0.312502174392753</v>
+        <v>0.430450050516474</v>
       </c>
       <c r="T14">
-        <v>0.312502174392753</v>
+        <v>0.4304500505164741</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2110.189616</v>
+        <v>4539.588785666667</v>
       </c>
       <c r="H15">
-        <v>6330.568848000001</v>
+        <v>13618.766357</v>
       </c>
       <c r="I15">
-        <v>0.9046248489651427</v>
+        <v>0.9785370483372949</v>
       </c>
       <c r="J15">
-        <v>0.9046248489651427</v>
+        <v>0.978537048337295</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>34.790704</v>
       </c>
       <c r="O15">
-        <v>0.2962335698320406</v>
+        <v>0.23906065069302</v>
       </c>
       <c r="P15">
-        <v>0.2962335698320406</v>
+        <v>0.23906065069302</v>
       </c>
       <c r="Q15">
-        <v>24471.66077137656</v>
+        <v>52645.16324128282</v>
       </c>
       <c r="R15">
-        <v>220244.946942389</v>
+        <v>473806.4691715453</v>
       </c>
       <c r="S15">
-        <v>0.2679802483677148</v>
+        <v>0.2339297035027409</v>
       </c>
       <c r="T15">
-        <v>0.2679802483677148</v>
+        <v>0.2339297035027409</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2110.189616</v>
+        <v>4539.588785666667</v>
       </c>
       <c r="H16">
-        <v>6330.568848000001</v>
+        <v>13618.766357</v>
       </c>
       <c r="I16">
-        <v>0.9046248489651427</v>
+        <v>0.9785370483372949</v>
       </c>
       <c r="J16">
-        <v>0.9046248489651427</v>
+        <v>0.978537048337295</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>9.452519666666667</v>
+        <v>10.59425366666667</v>
       </c>
       <c r="N16">
-        <v>28.357559</v>
+        <v>31.782761</v>
       </c>
       <c r="O16">
-        <v>0.2414570551459008</v>
+        <v>0.2183918878295978</v>
       </c>
       <c r="P16">
-        <v>0.2414570551459009</v>
+        <v>0.2183918878295978</v>
       </c>
       <c r="Q16">
-        <v>19946.60884563578</v>
+        <v>48093.55513770797</v>
       </c>
       <c r="R16">
-        <v>179519.4796107221</v>
+        <v>432841.9962393717</v>
       </c>
       <c r="S16">
-        <v>0.2184280520429287</v>
+        <v>0.2137045532975842</v>
       </c>
       <c r="T16">
-        <v>0.2184280520429287</v>
+        <v>0.2137045532975843</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2110.189616</v>
+        <v>4539.588785666667</v>
       </c>
       <c r="H17">
-        <v>6330.568848000001</v>
+        <v>13618.766357</v>
       </c>
       <c r="I17">
-        <v>0.9046248489651427</v>
+        <v>0.9785370483372949</v>
       </c>
       <c r="J17">
-        <v>0.9046248489651427</v>
+        <v>0.978537048337295</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>4.574811666666666</v>
+        <v>4.979874333333333</v>
       </c>
       <c r="N17">
-        <v>13.724435</v>
+        <v>14.939623</v>
       </c>
       <c r="O17">
-        <v>0.1168599052775075</v>
+        <v>0.102656042702913</v>
       </c>
       <c r="P17">
-        <v>0.1168599052775075</v>
+        <v>0.102656042702913</v>
       </c>
       <c r="Q17">
-        <v>9653.720074155653</v>
+        <v>22606.58167762927</v>
       </c>
       <c r="R17">
-        <v>86883.48066740089</v>
+        <v>203459.2350986634</v>
       </c>
       <c r="S17">
-        <v>0.1057143741617461</v>
+        <v>0.1004527410204958</v>
       </c>
       <c r="T17">
-        <v>0.1057143741617461</v>
+        <v>0.1004527410204958</v>
       </c>
     </row>
   </sheetData>
